--- a/results/I3_N5_M3_T30_C150_DepCentral_s0_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepCentral_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>647.8666027150401</v>
+        <v>19.36305227053332</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3359999656677246</v>
+        <v>0.1380000114440918</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.77660271490709</v>
+        <v>19.36305227053332</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>625.0900000001332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26.43123270582124</v>
+        <v>23.88634790002128</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26.16307414718502</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.87750147232089</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.37739353073905</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>25.11125526828168</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>162.2450000000008</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>119.6040000000048</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>200.2640000000119</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.2630000000136</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>87.66399999999979</v>
+        <v>146.2</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>162.2450000000014</v>
+        <v>134.4</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>119.604000000023</v>
+        <v>146.2</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>200.2640000000119</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.24500000000137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>50.26400000001195</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,28 +1305,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
